--- a/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>005314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>万家中证1000指数增强C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.34</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.34</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.44</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -650,25 +710,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>005314</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>万家中证1000指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.41</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1091,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1390,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1406,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/600458-时代新材.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,133 +455,665 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005314</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005313</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -789,89 +1321,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>217024</t>
+          <t>005314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商安盈债券</t>
+          <t>万家中证1000指数增强C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.66</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1840</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -879,576 +1411,44 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010430</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商安阳债券A</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.23</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.06</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1276</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010431</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商安阳债券C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005977</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8660</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>550009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信诚中小盘混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3769</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005978</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3591</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001070</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信信息产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2774</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519172</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浦银安盛睿智精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519173</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浦银安盛睿智精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000308</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信创新中国混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0939</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>